--- a/Test Cases - Competency.xlsx
+++ b/Test Cases - Competency.xlsx
@@ -4,34 +4,41 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="17" firstSheet="12" tabRatio="719" windowHeight="7815" windowWidth="20490"/>
+    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="719" firstSheet="20" activeTab="24"/>
   </bookViews>
   <sheets>
-    <sheet name="Readme Code" r:id="rId1" sheetId="10"/>
-    <sheet name="Scenario - Login" r:id="rId2" sheetId="1"/>
-    <sheet name="Data - Login Success" r:id="rId3" sheetId="2"/>
-    <sheet name="Scenario -  CL - Read" r:id="rId4" sheetId="3"/>
-    <sheet name="Scenario - CL - Add" r:id="rId5" sheetId="11"/>
-    <sheet name="Data - CL - Add" r:id="rId6" sheetId="4"/>
-    <sheet name="Scenario - CL - Add B" r:id="rId7" sheetId="8"/>
-    <sheet name="Data - CL - Add Success" r:id="rId8" sheetId="12"/>
-    <sheet name="Data - CL - Add B" r:id="rId9" sheetId="7"/>
-    <sheet name="Scenario - CL - Delete" r:id="rId10" sheetId="13"/>
-    <sheet name="Scenario - CL - Edit" r:id="rId11" sheetId="14"/>
-    <sheet name="Data - CL - Edit" r:id="rId12" sheetId="15"/>
-    <sheet name="Scenario -  CC - Add" r:id="rId13" sheetId="18"/>
-    <sheet name="Data - CC - Add" r:id="rId14" sheetId="19"/>
-    <sheet name="Scenario - CC - Add CL" r:id="rId15" sheetId="16"/>
-    <sheet name="Data - CC - Add CL" r:id="rId16" sheetId="17"/>
-    <sheet name="Scenario - CC - Edit" r:id="rId17" sheetId="20"/>
-    <sheet name="Data - CC - Edit" r:id="rId18" sheetId="21"/>
+    <sheet name="Readme Code" sheetId="10" r:id="rId1"/>
+    <sheet name="Scenario - Login" sheetId="1" r:id="rId2"/>
+    <sheet name="Data - Login Success" sheetId="2" r:id="rId3"/>
+    <sheet name="Scenario -  CL - Read" sheetId="3" r:id="rId4"/>
+    <sheet name="Scenario - CL - Add" sheetId="11" r:id="rId5"/>
+    <sheet name="Data - CL - Add" sheetId="4" r:id="rId6"/>
+    <sheet name="Scenario - CL - Add B" sheetId="8" r:id="rId7"/>
+    <sheet name="Data - CL - Add Success" sheetId="12" r:id="rId8"/>
+    <sheet name="Data - CL - Add B" sheetId="7" r:id="rId9"/>
+    <sheet name="Scenario - CL - Delete" sheetId="13" r:id="rId10"/>
+    <sheet name="Scenario - CL - Edit" sheetId="14" r:id="rId11"/>
+    <sheet name="Data - CL - Edit" sheetId="15" r:id="rId12"/>
+    <sheet name="Scenario -  CC - Add" sheetId="18" r:id="rId13"/>
+    <sheet name="Data - CC - Add" sheetId="19" r:id="rId14"/>
+    <sheet name="Scenario - CC - Add CL" sheetId="16" r:id="rId15"/>
+    <sheet name="Data - CC - Add CL" sheetId="17" r:id="rId16"/>
+    <sheet name="Scenario - CC - Edit" sheetId="20" r:id="rId17"/>
+    <sheet name="Data - CC - Edit" sheetId="21" r:id="rId18"/>
+    <sheet name="Scenario - CM - Read" sheetId="26" r:id="rId19"/>
+    <sheet name="Scenario - CM - Add" sheetId="22" r:id="rId20"/>
+    <sheet name="Data - CM - Add" sheetId="23" r:id="rId21"/>
+    <sheet name="Scenario - CM - Add CL" sheetId="27" r:id="rId22"/>
+    <sheet name="Data - CM - Add CL" sheetId="25" r:id="rId23"/>
+    <sheet name="Scenario - CM - Edit" sheetId="28" r:id="rId24"/>
+    <sheet name="Data - CM - Edit" sheetId="24" r:id="rId25"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="302">
   <si>
     <t>Test Case Module Competency</t>
   </si>
@@ -408,7 +415,7 @@
     <t>User berhasil login dan diarahkan ke halaman dashboard</t>
   </si>
   <si>
-    <t>2021-03-23 14:41:02</t>
+    <t>2021-03-24 09:29:51</t>
   </si>
   <si>
     <t>OK</t>
@@ -843,64 +850,100 @@
     <t>Tingkat kemampuan yang harus dimiliki seorang pegawai sesuai dengan job title yang dimiliki</t>
   </si>
   <si>
-    <t>2021-03-23 16:03:27</t>
-  </si>
-  <si>
-    <t>2021-03-23 16:05:58</t>
-  </si>
-  <si>
-    <t>2021-03-23 16:15:16</t>
-  </si>
-  <si>
-    <t>2021-03-23 16:17:41</t>
-  </si>
-  <si>
-    <t>2021-03-23 16:18:34</t>
-  </si>
-  <si>
-    <t>2021-03-23 16:42:25</t>
-  </si>
-  <si>
-    <t>2021-03-23 16:56:17</t>
-  </si>
-  <si>
-    <t>2021-03-23 17:26:14</t>
-  </si>
-  <si>
-    <t>2021-03-23 17:32:08</t>
-  </si>
-  <si>
-    <t>2021-03-23 17:33:31</t>
-  </si>
-  <si>
-    <t>2021-03-23 17:40:10</t>
-  </si>
-  <si>
-    <t>2021-03-23 17:48:53</t>
-  </si>
-  <si>
-    <t>2021-03-23 17:50:37</t>
-  </si>
-  <si>
-    <t>2021-03-23 17:52:43</t>
-  </si>
-  <si>
-    <t>2021-03-23 18:02:40</t>
-  </si>
-  <si>
-    <t>2021-03-23 18:04:40</t>
-  </si>
-  <si>
-    <t>2021-03-23 18:07:12</t>
-  </si>
-  <si>
-    <t>2021-03-24 09:25:56</t>
-  </si>
-  <si>
-    <t>2021-03-24 09:27:12</t>
-  </si>
-  <si>
-    <t>2021-03-24 09:29:51</t>
+    <t>Melihat Table Competency Model</t>
+  </si>
+  <si>
+    <t>Menambahkan Competency Model</t>
+  </si>
+  <si>
+    <t>Memanggil test case competency  model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code, category name, </t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>PRG</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>Semua programmer harus memiliki competency ini</t>
+  </si>
+  <si>
+    <t>Competency Model tersimpan</t>
+  </si>
+  <si>
+    <t>2021-03-26 18:06:18</t>
+  </si>
+  <si>
+    <t>Competency Model tidak tersimpan</t>
+  </si>
+  <si>
+    <t>2021-03-26 18:06:51</t>
+  </si>
+  <si>
+    <t>Data model name yang di masukkan kosong</t>
+  </si>
+  <si>
+    <t>2021-03-26 18:07:09</t>
+  </si>
+  <si>
+    <t>2021-03-26 18:07:26</t>
+  </si>
+  <si>
+    <t>Menambahkan Competency Model sekaligus Competency List</t>
+  </si>
+  <si>
+    <t>Klik type (1)</t>
+  </si>
+  <si>
+    <t>Klik dropdown category</t>
+  </si>
+  <si>
+    <t>Search category</t>
+  </si>
+  <si>
+    <t>Klik category (1)</t>
+  </si>
+  <si>
+    <t>Tutup category</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Competency</t>
+  </si>
+  <si>
+    <t>TCHN</t>
+  </si>
+  <si>
+    <t>PPDV</t>
+  </si>
+  <si>
+    <t>2021-03-25 16:24:39</t>
+  </si>
+  <si>
+    <t>Klik baris tabel</t>
+  </si>
+  <si>
+    <t>Klik tombol edit</t>
+  </si>
+  <si>
+    <t>2021-03-29 18:26:04</t>
+  </si>
+  <si>
+    <t>2021-03-29 18:26:28</t>
+  </si>
+  <si>
+    <t>2021-03-29 18:26:52</t>
+  </si>
+  <si>
+    <t>2021-03-29 18:27:16</t>
   </si>
 </sst>
 </file>
@@ -908,10 +951,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -944,24 +987,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -972,9 +1002,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,16 +1024,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,10 +1063,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1026,33 +1085,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,8 +1115,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1107,24 +1150,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1137,13 +1162,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,13 +1216,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,13 +1240,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,37 +1270,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,25 +1300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,13 +1312,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,6 +1359,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1331,19 +1387,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1447,21 +1490,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1485,15 +1513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1509,12 +1528,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1543,348 +1575,359 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="18" fillId="14" fontId="15" numFmtId="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="17" fillId="0" fontId="16" numFmtId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="15" fillId="9" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="17" fillId="0" fontId="14" numFmtId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="16" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="14" fillId="7" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="20" fillId="12" fontId="19" numFmtId="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="14" fillId="12" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="21" fillId="0" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="19" fillId="0" fontId="18" numFmtId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="21" numFmtId="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="7" numFmtId="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="9" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="46">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="22" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="2" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="2" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="7"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="8"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="9"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="10"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="11"/>
-    <cellStyle builtinId="10" name="Note" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="00B10F0F"/>
@@ -1906,10 +1949,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2073,21 +2116,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2104,7 +2147,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2157,9 +2200,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
@@ -2167,11 +2210,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.28571428571429" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.8571428571429" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.2857142857143" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="4.28571428571429" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -2403,7 +2446,7 @@
       <c r="S8" s="34"/>
       <c r="T8" s="43"/>
     </row>
-    <row ht="45" r="9" spans="1:20">
+    <row r="9" ht="45" spans="1:20">
       <c r="A9" s="30">
         <v>4</v>
       </c>
@@ -2437,7 +2480,7 @@
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
     </row>
-    <row ht="45" r="10" spans="1:20">
+    <row r="10" ht="45" spans="1:20">
       <c r="A10" s="30">
         <v>5</v>
       </c>
@@ -2467,7 +2510,7 @@
       <c r="S10" s="34"/>
       <c r="T10" s="43"/>
     </row>
-    <row ht="30" r="11" spans="1:20">
+    <row r="11" ht="30" spans="1:20">
       <c r="A11" s="30">
         <v>6</v>
       </c>
@@ -2497,7 +2540,7 @@
       <c r="S11" s="34"/>
       <c r="T11" s="43"/>
     </row>
-    <row ht="30" r="12" spans="1:20">
+    <row r="12" ht="30" spans="1:20">
       <c r="A12" s="30">
         <v>7</v>
       </c>
@@ -2527,7 +2570,7 @@
       <c r="S12" s="34"/>
       <c r="T12" s="43"/>
     </row>
-    <row ht="30" r="13" spans="1:20">
+    <row r="13" ht="30" spans="1:20">
       <c r="A13" s="30">
         <v>8</v>
       </c>
@@ -2557,7 +2600,7 @@
       <c r="S13" s="34"/>
       <c r="T13" s="43"/>
     </row>
-    <row ht="30" r="14" spans="1:20">
+    <row r="14" ht="30" spans="1:20">
       <c r="A14" s="30">
         <v>9</v>
       </c>
@@ -2587,7 +2630,7 @@
       <c r="S14" s="34"/>
       <c r="T14" s="43"/>
     </row>
-    <row ht="30" r="15" spans="1:20">
+    <row r="15" ht="30" spans="1:20">
       <c r="A15" s="30">
         <v>10</v>
       </c>
@@ -2617,7 +2660,7 @@
       <c r="S15" s="34"/>
       <c r="T15" s="43"/>
     </row>
-    <row ht="30" r="16" spans="1:20">
+    <row r="16" ht="30" spans="1:20">
       <c r="A16" s="30">
         <v>11</v>
       </c>
@@ -2647,7 +2690,7 @@
       <c r="S16" s="34"/>
       <c r="T16" s="43"/>
     </row>
-    <row ht="30" r="17" spans="1:20">
+    <row r="17" ht="30" spans="1:20">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -2675,7 +2718,7 @@
       <c r="S17" s="34"/>
       <c r="T17" s="43"/>
     </row>
-    <row ht="30" r="18" spans="1:20">
+    <row r="18" ht="30" spans="1:20">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -2731,7 +2774,7 @@
       <c r="S19" s="34"/>
       <c r="T19" s="43"/>
     </row>
-    <row ht="30" r="20" spans="1:20">
+    <row r="20" ht="30" spans="1:20">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -2759,7 +2802,7 @@
       <c r="S20" s="34"/>
       <c r="T20" s="43"/>
     </row>
-    <row ht="30" r="21" spans="10:20">
+    <row r="21" ht="30" spans="10:20">
       <c r="J21" s="30">
         <v>16</v>
       </c>
@@ -2778,7 +2821,7 @@
       <c r="S21" s="34"/>
       <c r="T21" s="43"/>
     </row>
-    <row ht="30" r="22" spans="10:20">
+    <row r="22" ht="30" spans="10:20">
       <c r="J22" s="30">
         <v>17</v>
       </c>
@@ -2797,7 +2840,7 @@
       <c r="S22" s="34"/>
       <c r="T22" s="43"/>
     </row>
-    <row ht="30" r="23" spans="10:20">
+    <row r="23" ht="30" spans="10:20">
       <c r="J23" s="30">
         <v>18</v>
       </c>
@@ -2820,7 +2863,7 @@
       <c r="J24" s="30">
         <v>19</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="4" t="s">
         <v>51</v>
       </c>
       <c r="L24" s="36" t="s">
@@ -2839,7 +2882,7 @@
       <c r="J25" s="30">
         <v>20</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>53</v>
       </c>
       <c r="L25" s="36" t="s">
@@ -2858,7 +2901,7 @@
       <c r="J26" s="30">
         <v>21</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="4" t="s">
         <v>55</v>
       </c>
       <c r="L26" s="36" t="s">
@@ -2877,7 +2920,7 @@
       <c r="J27" s="30">
         <v>22</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>57</v>
       </c>
       <c r="L27" s="36" t="s">
@@ -2949,7 +2992,7 @@
       <c r="S30" s="39"/>
       <c r="T30" s="45"/>
     </row>
-    <row ht="30" r="31" spans="10:20">
+    <row r="31" ht="30" spans="10:20">
       <c r="J31" s="30">
         <v>26</v>
       </c>
@@ -2968,7 +3011,7 @@
       <c r="S31" s="39"/>
       <c r="T31" s="45"/>
     </row>
-    <row ht="30" r="32" spans="10:20">
+    <row r="32" ht="30" spans="10:20">
       <c r="J32" s="30">
         <v>27</v>
       </c>
@@ -2987,7 +3030,7 @@
       <c r="S32" s="39"/>
       <c r="T32" s="45"/>
     </row>
-    <row ht="30" r="33" spans="10:20">
+    <row r="33" ht="30" spans="10:20">
       <c r="J33" s="30">
         <v>28</v>
       </c>
@@ -3025,7 +3068,7 @@
       <c r="S34" s="39"/>
       <c r="T34" s="45"/>
     </row>
-    <row ht="30" r="35" spans="10:20">
+    <row r="35" ht="30" spans="10:20">
       <c r="J35" s="30">
         <v>30</v>
       </c>
@@ -3063,7 +3106,7 @@
       <c r="S36" s="39"/>
       <c r="T36" s="45"/>
     </row>
-    <row customHeight="1" ht="36" r="37" spans="10:20">
+    <row r="37" ht="36" customHeight="1" spans="10:20">
       <c r="J37" s="30">
         <v>32</v>
       </c>
@@ -3177,7 +3220,7 @@
       <c r="S42" s="39"/>
       <c r="T42" s="45"/>
     </row>
-    <row ht="30" r="43" spans="10:20">
+    <row r="43" ht="30" spans="10:20">
       <c r="J43" s="30">
         <v>38</v>
       </c>
@@ -3215,7 +3258,7 @@
       <c r="S44" s="39"/>
       <c r="T44" s="45"/>
     </row>
-    <row ht="30" r="45" spans="10:20">
+    <row r="45" ht="30" spans="10:20">
       <c r="J45" s="30">
         <v>40</v>
       </c>
@@ -3253,7 +3296,7 @@
       <c r="S46" s="39"/>
       <c r="T46" s="45"/>
     </row>
-    <row ht="30" r="47" spans="10:20">
+    <row r="47" ht="30" spans="10:20">
       <c r="J47" s="30">
         <v>42</v>
       </c>
@@ -3272,7 +3315,7 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
     </row>
-    <row ht="30" r="48" spans="10:20">
+    <row r="48" ht="30" spans="10:20">
       <c r="J48" s="30">
         <v>43</v>
       </c>
@@ -3409,26 +3452,26 @@
     <mergeCell ref="L52:T52"/>
     <mergeCell ref="A1:T2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.85714285714286" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.4285714285714" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.7142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="4.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3446,61 +3489,61 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="D2:D5"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:D10"/>
@@ -3508,10 +3551,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.85714285714286" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.4285714285714" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.7142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="4.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3529,113 +3572,113 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="D2:D10"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -3643,21 +3686,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.14285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.2857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.2857142857143" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.1428571428571" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.2857142857143" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.1428571428571" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.2857142857143" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.4285714285714" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.5714285714286" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="14.1428571428571" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="7.14285714285714" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="45" r="1" spans="1:12">
+    <row r="1" ht="45" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3695,8 +3738,8 @@
         <v>119</v>
       </c>
     </row>
-    <row ht="45" r="2" spans="1:12">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="45" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>231</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3705,7 +3748,7 @@
       <c r="C2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="D2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="b">
@@ -3714,25 +3757,25 @@
       <c r="F2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>123</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="5"/>
-    </row>
-    <row ht="45" r="3" spans="1:12">
-      <c r="A3" s="5" t="s">
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" ht="45" spans="1:12">
+      <c r="A3" s="4" t="s">
         <v>231</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3741,7 +3784,7 @@
       <c r="C3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="5" t="b">
+      <c r="D3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="b">
@@ -3750,25 +3793,25 @@
       <c r="F3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>123</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row ht="45" r="4" spans="1:12">
-      <c r="A4" s="5" t="s">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" ht="45" spans="1:12">
+      <c r="A4" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3777,7 +3820,7 @@
       <c r="C4" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="5" t="b">
+      <c r="D4" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="b">
@@ -3786,25 +3829,25 @@
       <c r="F4" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>123</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row ht="45" r="5" spans="1:12">
-      <c r="A5" s="5" t="s">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" ht="45" spans="1:12">
+      <c r="A5" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3813,7 +3856,7 @@
       <c r="C5" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D5" s="5" t="b">
+      <c r="D5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="b">
@@ -3822,25 +3865,25 @@
       <c r="F5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>123</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="L5" s="5"/>
-    </row>
-    <row ht="45" r="6" spans="1:12">
-      <c r="A6" s="5" t="s">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" ht="45" spans="1:12">
+      <c r="A6" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3849,47 +3892,47 @@
       <c r="C6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="5" t="b">
+      <c r="D6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="b">
+      <c r="E6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>123</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.85714285714286" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.4285714285714" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.7142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="4.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3907,113 +3950,113 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>238</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>7</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>8</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>9</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="D2:D8"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="87" zoomScaleNormal="87">
-      <selection activeCell="AJ65" sqref="AJ65"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.14285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.1428571428571" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.1428571428571" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.2857142857143" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.7142857142857" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.2857142857143" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="7.14285714285714" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:10">
+    <row r="1" ht="30" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4045,8 +4088,8 @@
         <v>119</v>
       </c>
     </row>
-    <row ht="45" r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="45" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4058,25 +4101,25 @@
       <c r="D2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>123</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row ht="45" r="3" spans="1:10">
-      <c r="A3" s="5"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" ht="45" spans="1:10">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>246</v>
       </c>
@@ -4086,25 +4129,25 @@
       <c r="D3" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row ht="45" r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" ht="45" spans="1:10">
+      <c r="A4" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B4" s="3"/>
@@ -4114,25 +4157,25 @@
       <c r="D4" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row ht="45" r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" ht="45" spans="1:10">
+      <c r="A5" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -4142,44 +4185,44 @@
       <c r="D5" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.85714285714286" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.4285714285714" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.7142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="4.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4197,163 +4240,163 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B15"/>
     <mergeCell ref="D2:D15"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:J5"/>
@@ -4361,19 +4404,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.14285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.1428571428571" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.1428571428571" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.2857142857143" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.7142857142857" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.2857142857143" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="7.14285714285714" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:10">
+    <row r="1" ht="30" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4405,8 +4448,8 @@
         <v>119</v>
       </c>
     </row>
-    <row ht="45" r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="45" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4418,25 +4461,25 @@
       <c r="D2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>123</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row ht="45" r="3" spans="1:10">
-      <c r="A3" s="5"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" ht="45" spans="1:10">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>246</v>
       </c>
@@ -4446,25 +4489,25 @@
       <c r="D3" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row ht="45" r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" ht="45" spans="1:10">
+      <c r="A4" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B4" s="3"/>
@@ -4474,25 +4517,25 @@
       <c r="D4" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row ht="45" r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" ht="45" spans="1:10">
+      <c r="A5" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -4502,31 +4545,31 @@
       <c r="D5" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>162</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -4536,34 +4579,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.1428571428571" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.1428571428571" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.2857142857143" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.7142857142857" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.2857142857143" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="20.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="17.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:9">
+    <row r="1" ht="30" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
@@ -4592,70 +4635,173 @@
         <v>119</v>
       </c>
     </row>
-    <row ht="45" r="2" spans="1:9">
+    <row r="2" ht="45" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row customFormat="1" ht="45" r="3" spans="1:9">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" customFormat="1" ht="45" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>269</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:D$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="4.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" ht="30" spans="1:4">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.85714285714286" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.8571428571429" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.7142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5714285714286" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="1" max="1" width="4.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4673,13 +4819,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -4687,17 +4833,17 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="13"/>
@@ -4707,41 +4853,41 @@
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D8" s="19"/>
@@ -4751,15 +4897,1159 @@
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="D2:D8"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="4.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="D2:D8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:J$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="7.14285714285714" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5714285714286" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" ht="45" spans="1:10">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" ht="45" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" t="s">
+        <v>283</v>
+      </c>
+      <c r="H4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" ht="45" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="4.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B20"/>
+    <mergeCell ref="D2:D20"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="7.14285714285714" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.5714285714286" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:12">
+      <c r="A2" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" ht="45" spans="1:12">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" ht="45" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" ht="45" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="4.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B21"/>
+    <mergeCell ref="D2:D21"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="11.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="17.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="18.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="16.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="19.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="20.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" t="s">
+        <v>298</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" ht="45" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" ht="45" spans="1:11">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" ht="45" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -4767,15 +6057,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.2857142857143" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.7142857142857" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.8571428571429" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.2857142857143" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="39.4285714285714" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.5714285714286" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.8571428571429" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.8571428571429" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="15.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4807,24 +6097,24 @@
         <v>119</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="30" spans="1:9">
+      <c r="A2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>289</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
         <v>123</v>
@@ -4832,29 +6122,29 @@
       <c r="H2" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.85714285714286" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.4285714285714" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.7142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="4.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4872,63 +6162,63 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
       <c r="D2" s="17"/>
     </row>
-    <row ht="30" r="3" spans="1:4">
-      <c r="A3" s="5">
+    <row r="3" ht="30" spans="1:4">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D7" s="19"/>
@@ -4938,27 +6228,27 @@
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="D2:D7"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C14"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.85714285714286" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.4285714285714" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.7142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5714285714286" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.2857142857143" collapsed="true"/>
+    <col min="1" max="1" width="4.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.2857142857143" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4979,153 +6269,153 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="15"/>
@@ -5140,15 +6430,15 @@
     <mergeCell ref="D2:D14"/>
     <mergeCell ref="E2:E14"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -5156,21 +6446,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.14285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.2857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.2857142857143" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.1428571428571" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="11.8571428571429" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.1428571428571" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.2857142857143" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.4285714285714" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.85714285714286" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.1428571428571" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="12.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="7.14285714285714" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="11.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="45" r="1" spans="1:13">
+    <row r="1" ht="45" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5211,8 +6501,8 @@
         <v>119</v>
       </c>
     </row>
-    <row ht="45" r="2" spans="1:13">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="45" spans="1:13">
+      <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -5221,10 +6511,10 @@
       <c r="C2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="D2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="b">
+      <c r="E2" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F2" s="13">
@@ -5233,25 +6523,25 @@
       <c r="G2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>123</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="5"/>
-    </row>
-    <row ht="45" r="3" spans="1:13">
-      <c r="A3" s="5" t="s">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" ht="45" spans="1:13">
+      <c r="A3" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -5260,84 +6550,84 @@
       <c r="C3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="5" t="b">
+      <c r="D3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="b">
+      <c r="E3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="13">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>162</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="M3" s="5"/>
-    </row>
-    <row ht="45" r="4" spans="1:13">
-      <c r="A4" s="5"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" ht="45" spans="1:13">
+      <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="5" t="b">
+      <c r="D4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="b">
+      <c r="E4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="13">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>162</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row ht="45" r="5" spans="1:13">
-      <c r="A5" s="5" t="s">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" ht="45" spans="1:13">
+      <c r="A5" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="5" t="b">
+      <c r="D5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="b">
+      <c r="E5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="13">
@@ -5346,35 +6636,35 @@
       <c r="G5" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>162</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="M5" s="5"/>
-    </row>
-    <row ht="30" r="6" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" ht="30" spans="1:13">
+      <c r="A6" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="5" t="b">
+      <c r="D6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="b">
+      <c r="E6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="13">
@@ -5383,25 +6673,25 @@
       <c r="G6" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>162</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="5"/>
-    </row>
-    <row ht="90" r="7" spans="1:13">
-      <c r="A7" s="5" t="s">
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" ht="90" spans="1:13">
+      <c r="A7" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -5410,10 +6700,10 @@
       <c r="C7" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="5" t="b">
+      <c r="D7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="b">
+      <c r="E7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="13">
@@ -5422,19 +6712,19 @@
       <c r="G7" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>162</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="8" t="s">
         <v>126</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -5442,26 +6732,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="4.85714285714286" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.4285714285714" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.7142857142857" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="4.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5479,173 +6769,173 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B16"/>
     <mergeCell ref="D2:D16"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:M2"/>
@@ -5653,21 +6943,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.14285714285714" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.2857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.2857142857143" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.1428571428571" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="11.8571428571429" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.1428571428571" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.2857142857143" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.4285714285714" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.85714285714286" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.1428571428571" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="12.5714285714286" collapsed="true"/>
+    <col min="1" max="1" width="7.14285714285714" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="11.8571428571429" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5714285714286" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="45" r="1" spans="1:13">
+    <row r="1" ht="45" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5708,8 +6998,8 @@
         <v>119</v>
       </c>
     </row>
-    <row ht="45" r="2" spans="1:13">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="45" spans="1:13">
+      <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -5718,10 +7008,10 @@
       <c r="C2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="D2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="b">
+      <c r="E2" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F2" s="13">
@@ -5730,7 +7020,7 @@
       <c r="G2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>123</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -5739,24 +7029,24 @@
       <c r="J2" s="14">
         <v>44274.4571527778</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="M2" s="5"/>
+      <c r="M2" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
@@ -5764,22 +7054,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.1428571428571" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.2857142857143" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="12.7142857142857" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.4285714285714" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.4285714285714" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.1428571428571" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.2857142857143" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.4285714285714" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.2857142857143" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.85714285714286" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.1428571428571" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="15.4285714285714" collapsed="true"/>
+    <col min="1" max="1" width="17.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="12.7142857142857" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.4285714285714" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.2857142857143" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.85714285714286" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.1428571428571" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="15.4285714285714" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:14">
+    <row r="1" ht="30" spans="1:14">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -5823,7 +7113,7 @@
         <v>119</v>
       </c>
     </row>
-    <row ht="45" r="2" spans="1:14">
+    <row r="2" ht="45" spans="1:14">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>197</v>
@@ -5846,24 +7136,24 @@
       <c r="H2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>162</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="N2" s="5"/>
-    </row>
-    <row ht="45" r="3" spans="1:14">
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" ht="45" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>206</v>
       </c>
@@ -5886,26 +7176,26 @@
       <c r="H3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>162</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>123</v>
       </c>
       <c r="M3" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row ht="45" r="4" spans="1:14">
+    <row r="4" ht="45" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>206</v>
       </c>
@@ -5928,24 +7218,24 @@
       <c r="H4" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>162</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>123</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="N4" s="7"/>
-    </row>
-    <row ht="45" r="5" spans="1:14">
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" ht="45" spans="1:14">
       <c r="A5" s="3" t="s">
         <v>206</v>
       </c>
@@ -5968,24 +7258,24 @@
       <c r="H5" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>162</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>123</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="N5" s="7"/>
-    </row>
-    <row ht="45" r="6" spans="1:14">
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" ht="45" spans="1:14">
       <c r="A6" s="3" t="s">
         <v>206</v>
       </c>
@@ -6008,24 +7298,24 @@
       <c r="H6" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>162</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>123</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="N6" s="7"/>
-    </row>
-    <row ht="45" r="7" spans="1:14">
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" ht="45" spans="1:14">
       <c r="A7" s="3" t="s">
         <v>206</v>
       </c>
@@ -6048,24 +7338,24 @@
       <c r="H7" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>162</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>123</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="N7" s="8"/>
-    </row>
-    <row ht="45" r="8" spans="1:14">
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" ht="45" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>206</v>
       </c>
@@ -6090,28 +7380,28 @@
       <c r="H8" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>123</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="N8" s="5"/>
+      <c r="N8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="N3:N7"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>